--- a/2023年题目信息/B题/result1.xlsx
+++ b/2023年题目信息/B题/result1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5168207A-465B-4002-988A-019CFE1C6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="7425" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,17 +391,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,51 +439,101 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="2">
+        <v>90.941558646298503</v>
+      </c>
+      <c r="C2" s="2">
+        <v>85.706168984723902</v>
+      </c>
+      <c r="D2" s="2">
+        <v>80.470779323149301</v>
+      </c>
+      <c r="E2" s="2">
+        <v>75.235389661574601</v>
+      </c>
       <c r="F2" s="2">
         <v>70</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="2">
+        <v>64.764610338425399</v>
+      </c>
+      <c r="H2" s="2">
+        <v>59.529220676850699</v>
+      </c>
+      <c r="I2" s="2">
+        <v>54.293831015276098</v>
+      </c>
+      <c r="J2" s="2">
+        <v>49.058441353701497</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="2">
+        <v>315.68018826170203</v>
+      </c>
+      <c r="C3" s="2">
+        <v>297.50688203525903</v>
+      </c>
+      <c r="D3" s="2">
+        <v>279.33357580881602</v>
+      </c>
+      <c r="E3" s="2">
+        <v>261.160269582372</v>
+      </c>
+      <c r="F3" s="2">
+        <v>242.98696335592899</v>
+      </c>
+      <c r="G3" s="2">
+        <v>224.81365712948499</v>
+      </c>
+      <c r="H3" s="2">
+        <v>206.64035090304199</v>
+      </c>
+      <c r="I3" s="2">
+        <v>188.46704467659799</v>
+      </c>
+      <c r="J3" s="2">
+        <v>170.29373845015499</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="C4" s="2">
+        <v>33.634721051333401</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29.580776050509701</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24.999335679952601</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19.7802798026764</v>
+      </c>
+      <c r="G4" s="2">
+        <v>13.7805441773125</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.8108049125820402</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1.38486341607882</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-11.161098687068501</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
